--- a/biology/Histoire de la zoologie et de la botanique/James_Douglas_Ogilby/James_Douglas_Ogilby.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Douglas_Ogilby/James_Douglas_Ogilby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Douglas Ogilby est un ichtyologiste australien, né le 16 février 1853 à Belfast et mort le 11 août 1925 à Brisbane.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du naturaliste William Ogilby (1808-1873). Après ses études au Winchester College et au Trinity College de Dublin, il travaille pour le British Museum. Il s’intéresse aux oiseaux et aux poissons et voyage aux États-Unis d'Amérique. En 1884, il obtient un poste d’assistant au Australian Museum de Sydney et se marie, la même année, avec Mary Jame Jameson.
 James Douglas Ogilby fait paraître de nombreux articles sur les reptiles, les mammifères et les poissons d’Australie. Il est élu membre de la Linnean Society of London en 1887. Il travaille au British Museum, puis à l'Australian Museum à Sydney, dont il est licencié en 1890 à cause de son alcoolisme. Il continue cependant d’étudier la faune australienne sur une base contractuelle.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1887 : Catalogue of Fishes and Other Exhibits at the Royal Aquarium, Bondi.
 1892 : Catalogue of Australian Mammals.
@@ -576,7 +592,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Australian Dictionary of Biography Online Edition</t>
         </is>
